--- a/placement.xlsx
+++ b/placement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>S.No</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>KARTHICK K</t>
+  </si>
+  <si>
+    <t>cse</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,7 +472,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
